--- a/Tabela #1 Classes.xlsx
+++ b/Tabela #1 Classes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>BBA (int)</t>
   </si>
@@ -84,13 +84,61 @@
   </si>
   <si>
     <t>Monge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Origem (string)</t>
+  </si>
+  <si>
+    <t>TRPG</t>
+  </si>
+  <si>
+    <t>Descrição  (string)</t>
+  </si>
+  <si>
+    <t>Combatente selvagem; possui menos truques que o guerreiro e usa menos armadura, mas compensa através de um corpo mais vigoroso e da capacidade de entrar em um estado de fúria, que melhora suas capacidades de combate.</t>
+  </si>
+  <si>
+    <t>Mestre do combate. Sabe usar qualquer arma e armadura não-exótica. Pode ter qualquer estilo de combate; desde um mercenário usando uma espada de duas mãos até um arqueiro vestindo um leve corselete.</t>
+  </si>
+  <si>
+    <t>Um guerreiro de armadura pesada especial, que recebe armas ancestrais, capazes de evoluir junto com o personagem. Ele pode tanto usar duas armas quanto ser um mestre de iaijitsu; além disso, aprende várias técnicas de combate para aterrorizar os inimigos.</t>
+  </si>
+  <si>
+    <t>Figura sábia e misteriosa, o monge sacrifica coisas materiais como armas e armaduras; através de meditação e auto-conhecimento, o monge conseguiu aperfeiçoar o próprio corpo como a ferramenta perfeita, realizando atos sobrehumanos com suas próprias mãos e pés.</t>
+  </si>
+  <si>
+    <t>Aventureiro mestre dos truques. Consegue enganar com palavras e disfarces, encontrar armadilhas, abrir fechaduras e coisas do tipo. É frágil em combate, preferindo se esgueirar pelas sombras e atacando inimigos sem ser percebido.</t>
+  </si>
+  <si>
+    <t>Combatente das áreas inexploradas, é especializado em caçar inimigos de uma certa espécie e em ter conhecimento de sobrevivência para terrenos difíceis. Costuma lutar usando duas armas ou com arco-e-flecha, junto da companhia de um animal selvagem. Pode aprender algumas magias ligadas a natureza.</t>
+  </si>
+  <si>
+    <t>Sempre usando um chapéu ou máscara e uma espada esvoaçante, o swashbuckler troca qualquer armadura por uma mistura de velocidade e sorte. Usando armas leves ou até mesmo armas de fogo, conseguem vencer vários combates através de pura autoconfiança.</t>
+  </si>
+  <si>
+    <t>O clássico tijolo-de-todas-as-obras, o bardo sabe um pouco de tudo: Magia, combate, furtividade, ladinagem e diplomacia; no entanto, não é o mestre de nenhuma delas. Para compensar, ele é capaz de cantar músicas com efeitos mágicos que inspiram seus aliados a grandiosidades.</t>
+  </si>
+  <si>
+    <t>O misterioso mestre das magias arcanas, o mago sacrifica qualquer treinamento religioso ou marcial para aprender como dobrar a própria realidade a sua vontade. Toda manhã ele prepara todas as magias que pretende usar ao longo do dia, precisando assim ser inteligente e estratégico para saber o que vai precisar estudar.</t>
+  </si>
+  <si>
+    <t>Algumas pessoas simplesmente nascem sortudas. O feiticeiro já possuí a magia arcana no sangue; para ele, lançar fogo pelas mãos é tão natural quanto piscar o olho. Ele não precisa preparar nenhuma magia, sendo capaz de lançar qualquer coisa que saiba. No entanto, ele é incapaz de aprender qualquer feitiço que já não conheça naturalmente.</t>
+  </si>
+  <si>
+    <t>O clássico guerreiro sagrado de armadura pesada e brilhante; antes de ser servo de qualquer deus, o paladino é um farol de esperança para os bondosos, espalhando justiça por todo caminho que percorre, recebendo poderes especiais para proteger os inocentes e destruir os malignos.</t>
+  </si>
+  <si>
+    <t>O verdadeiro defensor da natureza, o druída se recusa a vestir e usar qualquer coisa que venha da civilização, preferindo usar armaduras de peles e dormir ao relento. Sua ligação com o mundo natural lhe concede poderes divinos como magias e a capacidade de se transformar em uma fera selvagem.</t>
+  </si>
+  <si>
+    <t>Servo dos deuses, toda manhã o clérigo reza pelas magias que pretende usar ao longo do dia, recebendo uma parcela de poder divino. Ao contrário dos magos, o clérigo não teme entrar em batalha, podendo vestir as armaduras mais pesadas e ainda assim usar suas magias para curar ou destruir.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +156,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -147,6 +203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,9 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -473,9 +532,11 @@
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -494,8 +555,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -514,8 +581,14 @@
       <c r="F2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -534,8 +607,14 @@
       <c r="F3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -554,8 +633,14 @@
       <c r="F4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -574,8 +659,14 @@
       <c r="F5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -591,11 +682,17 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -614,8 +711,14 @@
       <c r="F7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -634,8 +737,14 @@
       <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -654,8 +763,14 @@
       <c r="F9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -674,8 +789,14 @@
       <c r="F10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -694,8 +815,14 @@
       <c r="F11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -714,8 +841,14 @@
       <c r="F12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -734,8 +867,14 @@
       <c r="F13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -753,6 +892,12 @@
       </c>
       <c r="F14">
         <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
